--- a/Gráficos/Series-Top10.xlsx
+++ b/Gráficos/Series-Top10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FACCE20-A7B5-4A7D-B6AE-5B2AE2C2FDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4362BF8A-324C-45C0-8E7E-38D53BFDB779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7F4B6BB6-5E6E-4878-8D3B-74579C7FB73C}"/>
   </bookViews>
@@ -33,21 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>nota</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Wandinha</t>
   </si>
   <si>
     <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Money Hest</t>
   </si>
   <si>
     <t>Dahmer</t>
@@ -72,6 +63,9 @@
   </si>
   <si>
     <t>One Piece 1</t>
+  </si>
+  <si>
+    <t>Casa de Papel</t>
   </si>
 </sst>
 </file>
@@ -178,7 +172,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12469388014704948"/>
-          <c:y val="0.14292870905587671"/>
+          <c:y val="0.11980732177263971"/>
           <c:w val="0.85592001322936406"/>
           <c:h val="0.61437349233079974"/>
         </c:manualLayout>
@@ -197,7 +191,18 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="101600">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="82000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
@@ -211,7 +216,20 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="95000"/>
+                    <a:lumOff val="5000"/>
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="82000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -230,11 +248,118 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="82000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-1F0A-495B-B722-BE12CDBB1600}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="82000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:srgbClr val="C00000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="82000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="82000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -250,7 +375,7 @@
                   <c:v>Stranger Things</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Money Hest</c:v>
+                  <c:v>Casa de Papel</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Dahmer</c:v>
@@ -373,7 +498,7 @@
               <c:symbol val="picture"/>
               <c:spPr>
                 <a:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
                   <a:stretch>
                     <a:fillRect/>
                   </a:stretch>
@@ -391,6 +516,222 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="picture"/>
+              <c:spPr>
+                <a:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </a:blipFill>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="picture"/>
+              <c:spPr>
+                <a:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </a:blipFill>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="picture"/>
+              <c:spPr>
+                <a:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </a:blipFill>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="picture"/>
+              <c:spPr>
+                <a:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </a:blipFill>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="picture"/>
+              <c:spPr>
+                <a:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </a:blipFill>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="picture"/>
+              <c:spPr>
+                <a:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </a:blipFill>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="picture"/>
+              <c:spPr>
+                <a:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </a:blipFill>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="picture"/>
+              <c:spPr>
+                <a:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </a:blipFill>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:marker>
+              <c:symbol val="picture"/>
+              <c:spPr>
+                <a:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </a:blipFill>
+                <a:ln w="25400">
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Planilha1!$A$2:$A$12</c:f>
@@ -403,7 +744,7 @@
                   <c:v>Stranger Things</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Money Hest</c:v>
+                  <c:v>Casa de Papel</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Dahmer</c:v>
@@ -516,7 +857,11 @@
             </a:solidFill>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:glow rad="127000">
+              <a:schemeClr val="tx1"/>
+            </a:glow>
+          </a:effectLst>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -524,12 +869,25 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:pattFill prst="pct5">
+                  <a:fgClr>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:fgClr>
+                  <a:bgClr>
+                    <a:schemeClr val="bg1"/>
+                  </a:bgClr>
+                </a:pattFill>
+                <a:effectLst>
+                  <a:glow rad="127000">
+                    <a:schemeClr val="accent5"/>
+                  </a:glow>
+                  <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:schemeClr val="tx1"/>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -553,20 +911,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -590,6 +934,11 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -623,7 +972,10 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="accent5">
+        <a:lumMod val="60000"/>
+        <a:lumOff val="40000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -652,549 +1004,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1237,23 +1046,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="Wednesday">
+        <xdr:cNvPr id="2" name="Imagem 1" descr="Dahmer – Monster: The Jeffrey Dahmer Story">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C4F9D3-A294-396D-3802-0C8E2147AD2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729FC909-345C-7EFC-17F6-35E2DAFC76F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1071,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1276,8 +1085,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3057526" y="723900"/>
-          <a:ext cx="247650" cy="371475"/>
+          <a:off x="2543175" y="1666875"/>
+          <a:ext cx="457200" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1298,23 +1107,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>298451</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3" descr="Stranger Things">
+        <xdr:cNvPr id="6" name="Imagem 5" descr="Bridgerton">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A3B7B2-8F80-6307-A1E6-8D04C739941E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6CEB0DC-E574-7811-C2D3-B6044914C7DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1337,8 +1146,374 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5095876" y="990601"/>
-          <a:ext cx="317500" cy="476250"/>
+          <a:off x="2562225" y="2562226"/>
+          <a:ext cx="431800" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>269876</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6" descr="Ginny &amp; Georgia">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10902C94-116B-00F4-8A7A-74E6C2400A0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2552701" y="628651"/>
+          <a:ext cx="393700" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7" descr="The Night Agent">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5FD672-18EC-56CF-000D-45E0BB0626A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1028700" y="3238500"/>
+          <a:ext cx="400050" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8" descr="Outer Banks">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0688ED-285E-9298-4235-77FD420946DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1028701" y="2438401"/>
+          <a:ext cx="393699" cy="590549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203231</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9" descr="Queen Charlotte: A Bridgerton Story">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C33BDA-F378-37DF-B163-AF4A80495933}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1828800" y="3086100"/>
+          <a:ext cx="441356" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10" descr="The Witcher">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21AE494D-920A-9BCC-82DC-D60F155180EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3095625" y="1990725"/>
+          <a:ext cx="428625" cy="642938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12" descr="One Piece">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61723B2F-9EB6-FA34-4D4A-2EC75F7E1699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3086100" y="2733675"/>
+          <a:ext cx="425450" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1657,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235FC422-6936-42B4-9C7C-A65CE5D38D58}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,17 +1844,9 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>341230000</v>
@@ -1687,7 +1854,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>286790000</v>
@@ -1695,7 +1862,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>201910000</v>
@@ -1703,7 +1870,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>196200000</v>
@@ -1711,7 +1878,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>193020000</v>
@@ -1719,7 +1886,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>180470000</v>
@@ -1727,7 +1894,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>168710000</v>
@@ -1735,7 +1902,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>154970000</v>
@@ -1743,7 +1910,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>148280000</v>
@@ -1751,7 +1918,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>142430000</v>
@@ -1759,7 +1926,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>140100000</v>

--- a/Gráficos/Series-Top10.xlsx
+++ b/Gráficos/Series-Top10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T-Gamer\Documents\Desenvolvimento 2022\Excel Estudos\Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4362BF8A-324C-45C0-8E7E-38D53BFDB779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91B4015-0EF1-41A8-83B9-9A6F652D331A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7F4B6BB6-5E6E-4878-8D3B-74579C7FB73C}"/>
   </bookViews>
@@ -135,6 +135,54 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Séries</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> com horas mais vistas Netflix 1º semana</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -143,26 +191,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -249,6 +277,103 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
+                <a:glow rad="139700">
+                  <a:srgbClr val="7030A0">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="82000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-1F0A-495B-B722-BE12CDBB1600}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="114300">
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="82000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-9B34-41A2-8A82-F2470A4F6ED5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="114300">
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="82000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-9B34-41A2-8A82-F2470A4F6ED5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
                 <a:glow rad="101600">
                   <a:schemeClr val="accent1">
                     <a:alpha val="40000"/>
@@ -263,7 +388,109 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-1F0A-495B-B722-BE12CDBB1600}"/>
+                <c16:uniqueId val="{00000018-9B34-41A2-8A82-F2470A4F6ED5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="82000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-9B34-41A2-8A82-F2470A4F6ED5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="82000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-9B34-41A2-8A82-F2470A4F6ED5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="82000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-9B34-41A2-8A82-F2470A4F6ED5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -543,6 +770,66 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
               <c:symbol val="picture"/>
               <c:spPr>
                 <a:blipFill>
@@ -560,103 +847,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:marker>
-              <c:symbol val="picture"/>
-              <c:spPr>
-                <a:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </a:blipFill>
-                <a:ln w="25400">
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="picture"/>
-              <c:spPr>
-                <a:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </a:blipFill>
-                <a:ln w="25400">
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="picture"/>
-              <c:spPr>
-                <a:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </a:blipFill>
-                <a:ln w="25400">
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:marker>
-              <c:symbol val="picture"/>
-              <c:spPr>
-                <a:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-                  <a:stretch>
-                    <a:fillRect/>
-                  </a:stretch>
-                </a:blipFill>
-                <a:ln w="25400">
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-04F3-4F16-A6C8-FDA31F7A8CD3}"/>
+                <c16:uniqueId val="{00000015-9B34-41A2-8A82-F2470A4F6ED5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -666,7 +857,7 @@
               <c:symbol val="picture"/>
               <c:spPr>
                 <a:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
                   <a:stretch>
                     <a:fillRect/>
                   </a:stretch>
@@ -690,7 +881,7 @@
               <c:symbol val="picture"/>
               <c:spPr>
                 <a:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
                   <a:stretch>
                     <a:fillRect/>
                   </a:stretch>
@@ -714,7 +905,7 @@
               <c:symbol val="picture"/>
               <c:spPr>
                 <a:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
                   <a:stretch>
                     <a:fillRect/>
                   </a:stretch>
@@ -847,7 +1038,6 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -868,18 +1058,36 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:pattFill prst="pct5">
-                  <a:fgClr>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:fgClr>
-                  <a:bgClr>
-                    <a:schemeClr val="bg1"/>
-                  </a:bgClr>
-                </a:pattFill>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="5000"/>
+                        <a:lumOff val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="74000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="83000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="30000"/>
+                        <a:lumOff val="70000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="1"/>
+                </a:gradFill>
                 <a:effectLst>
                   <a:glow rad="127000">
                     <a:schemeClr val="accent5"/>
@@ -1010,16 +1218,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1046,16 +1254,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1085,8 +1293,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2543175" y="1666875"/>
-          <a:ext cx="457200" cy="685800"/>
+          <a:off x="8429625" y="1181100"/>
+          <a:ext cx="390525" cy="585788"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1107,16 +1315,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1146,7 +1354,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2562225" y="2562226"/>
+          <a:off x="8905875" y="1152526"/>
           <a:ext cx="431800" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1168,16 +1376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>269876</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1207,8 +1415,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2552701" y="628651"/>
-          <a:ext cx="393700" cy="590550"/>
+          <a:off x="9410700" y="1185864"/>
+          <a:ext cx="419100" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1229,16 +1437,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1268,7 +1476,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1028700" y="3238500"/>
+          <a:off x="9858375" y="1219200"/>
           <a:ext cx="400050" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1290,16 +1498,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1329,7 +1537,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1028701" y="2438401"/>
+          <a:off x="4048126" y="1343026"/>
           <a:ext cx="393699" cy="590549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1351,16 +1559,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>203231</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536606</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1390,7 +1598,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1828800" y="3086100"/>
+          <a:off x="3381375" y="1333500"/>
           <a:ext cx="441356" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1412,16 +1620,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1451,7 +1659,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3095625" y="1990725"/>
+          <a:off x="3952875" y="352425"/>
           <a:ext cx="428625" cy="642938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1473,16 +1681,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>225425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1512,8 +1720,69 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3086100" y="2733675"/>
+          <a:off x="4591050" y="323850"/>
           <a:ext cx="425450" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2" descr="Money Heist">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6E9154-6FCC-2725-B9E3-4C89A387B78F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7981950" y="1157287"/>
+          <a:ext cx="390525" cy="585788"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1835,7 +2104,7 @@
   <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
